--- a/exceldata/excel/all/T-图标表.xlsx
+++ b/exceldata/excel/all/T-图标表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12140" tabRatio="651" firstSheet="4" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12140" tabRatio="651" firstSheet="26" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="#ID分配" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3716" uniqueCount="3050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3719" uniqueCount="3053">
   <si>
     <t>内容</t>
   </si>
@@ -11680,6 +11680,15 @@
   </si>
   <si>
     <t>LoverBg_1</t>
+  </si>
+  <si>
+    <t>情人视频背景1</t>
+  </si>
+  <si>
+    <t>UIRes/LoverGift/LoverFrameBig_1</t>
+  </si>
+  <si>
+    <t>LoverFrameBig_1</t>
   </si>
 </sst>
 </file>
@@ -27432,8 +27441,8 @@
   <sheetPr/>
   <dimension ref="A3:E12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -27536,10 +27545,18 @@
       </c>
     </row>
     <row r="9" ht="20.4" spans="2:5">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="2">
+        <v>330003</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3051</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3052</v>
+      </c>
     </row>
     <row r="10" ht="20.4" spans="2:5">
       <c r="B10" s="2"/>
@@ -29374,7 +29391,7 @@
   <sheetPr/>
   <dimension ref="A3:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>

--- a/exceldata/excel/all/T-图标表.xlsx
+++ b/exceldata/excel/all/T-图标表.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3719" uniqueCount="3053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3731" uniqueCount="3065">
   <si>
     <t>内容</t>
   </si>
@@ -11689,6 +11689,42 @@
   </si>
   <si>
     <t>LoverFrameBig_1</t>
+  </si>
+  <si>
+    <t>情人礼包背景2</t>
+  </si>
+  <si>
+    <t>UIRes/LoverGift/Loverqiuchang</t>
+  </si>
+  <si>
+    <t>Loverqiuchang</t>
+  </si>
+  <si>
+    <t>情人礼包背景3</t>
+  </si>
+  <si>
+    <t>UIRes/LoverGift/Loverdongche</t>
+  </si>
+  <si>
+    <t>Loverdongche</t>
+  </si>
+  <si>
+    <t>情人礼包背景4</t>
+  </si>
+  <si>
+    <t>UIRes/LoverGift/Loverhuitang</t>
+  </si>
+  <si>
+    <t>Loverhuitang</t>
+  </si>
+  <si>
+    <t>情人礼包背景5</t>
+  </si>
+  <si>
+    <t>UIRes/LoverGift/Loverfeiji</t>
+  </si>
+  <si>
+    <t>Loverfeiji</t>
   </si>
 </sst>
 </file>
@@ -27156,7 +27192,7 @@
   <sheetPr/>
   <dimension ref="A3:E8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -27165,7 +27201,8 @@
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="26.25" customWidth="1"/>
     <col min="4" max="4" width="50.875" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="30.7307692307692" customWidth="1"/>
+    <col min="6" max="6" width="15.0865384615385" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
@@ -27439,10 +27476,10 @@
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:E12"/>
+  <dimension ref="A3:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -27544,7 +27581,8 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="9" ht="20.4" spans="2:5">
+    <row r="9" ht="20.4" spans="1:5">
+      <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>330003</v>
       </c>
@@ -27558,23 +27596,65 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="10" ht="20.4" spans="2:5">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" ht="20.4" spans="2:5">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" ht="20.4" spans="2:5">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+    <row r="10" ht="20.4" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2">
+        <v>330004</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3053</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3054</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="11" ht="20.4" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2">
+        <v>330005</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3057</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="12" ht="20.4" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2">
+        <v>330006</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3059</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3060</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="13" ht="20.4" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2">
+        <v>330007</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3063</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3064</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exceldata/excel/all/T-图标表.xlsx
+++ b/exceldata/excel/all/T-图标表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12140" tabRatio="651" firstSheet="26" activeTab="33"/>
+    <workbookView windowWidth="27900" windowHeight="12220" tabRatio="651" firstSheet="27" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="#ID分配" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="3101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="3133">
   <si>
     <t>内容</t>
   </si>
@@ -11040,6 +11040,102 @@
     <t>flhd_icon_18</t>
   </si>
   <si>
+    <t>2800030</t>
+  </si>
+  <si>
+    <t>精良装备</t>
+  </si>
+  <si>
+    <t>UIRes/Common/Icon/Welfare/jingliangzhuangbei_icon</t>
+  </si>
+  <si>
+    <t>jingliangzhuangbei_icon</t>
+  </si>
+  <si>
+    <t>2800031</t>
+  </si>
+  <si>
+    <t>精锐头目</t>
+  </si>
+  <si>
+    <t>UIRes/Common/Icon/Welfare/jingruitoumu_icon</t>
+  </si>
+  <si>
+    <t>jingruitoumu_icon</t>
+  </si>
+  <si>
+    <t>2800032</t>
+  </si>
+  <si>
+    <t>神秘宝物</t>
+  </si>
+  <si>
+    <t>UIRes/Common/Icon/Welfare/shenmibaowu_icon</t>
+  </si>
+  <si>
+    <t>shenmibaowu_icon</t>
+  </si>
+  <si>
+    <t>2800033</t>
+  </si>
+  <si>
+    <t>性感佳人</t>
+  </si>
+  <si>
+    <t>UIRes/Common/Icon/Welfare/xingganjiaren_icon</t>
+  </si>
+  <si>
+    <t>xingganjiaren_icon</t>
+  </si>
+  <si>
+    <t>2800034</t>
+  </si>
+  <si>
+    <t>激情视频</t>
+  </si>
+  <si>
+    <t>UIRes/Common/Icon/Welfare/jiqingshipin_icon</t>
+  </si>
+  <si>
+    <t>jiqingshipin_icon</t>
+  </si>
+  <si>
+    <t>2800035</t>
+  </si>
+  <si>
+    <t>精良装备1</t>
+  </si>
+  <si>
+    <t>UIRes/Common/Icon/Welfare/jingliangzhuangbei1_icon</t>
+  </si>
+  <si>
+    <t>jingliangzhuangbei1_icon</t>
+  </si>
+  <si>
+    <t>2800036</t>
+  </si>
+  <si>
+    <t>情人礼包</t>
+  </si>
+  <si>
+    <t>UIRes/Common/Icon/Welfare/qingrenlibao_icon</t>
+  </si>
+  <si>
+    <t>qingrenlibao_icon</t>
+  </si>
+  <si>
+    <t>2800037</t>
+  </si>
+  <si>
+    <t>英雄礼包</t>
+  </si>
+  <si>
+    <t>UIRes/Common/Icon/Welfare/yingxionglibao_icon</t>
+  </si>
+  <si>
+    <t>yingxionglibao_icon</t>
+  </si>
+  <si>
     <t>榜名图片</t>
   </si>
   <si>
@@ -11841,9 +11937,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -11923,30 +12019,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11961,18 +12034,25 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11991,8 +12071,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12005,9 +12108,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12016,14 +12119,6 @@
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -12040,21 +12135,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -12065,7 +12145,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12134,13 +12230,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12152,7 +12254,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12164,7 +12308,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12176,67 +12374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12254,49 +12392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12397,22 +12493,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12444,39 +12564,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -12484,167 +12580,167 @@
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -12653,14 +12749,14 @@
   </cellStyleXfs>
   <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -12699,13 +12795,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12720,13 +12816,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -12746,7 +12842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -12755,7 +12851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12799,7 +12895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12820,10 +12916,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -12864,25 +12960,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="51" applyFill="1" applyAlignment="1">
@@ -12891,32 +12987,32 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="1表头" xfId="1"/>
-    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="着色 2 2" xfId="1"/>
+    <cellStyle name="普通数值" xfId="2"/>
     <cellStyle name="常规 4" xfId="3"/>
-    <cellStyle name="普通数值" xfId="4"/>
-    <cellStyle name="着色 2 2" xfId="5"/>
+    <cellStyle name="常规 2" xfId="4"/>
+    <cellStyle name="1表头" xfId="5"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="6" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="7" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
@@ -13822,7 +13918,7 @@
   <sheetPr/>
   <dimension ref="A2:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
@@ -21852,16 +21948,16 @@
   <sheetPr/>
   <dimension ref="A3:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="49.375" customWidth="1"/>
+    <col min="3" max="3" width="38.7788461538462" customWidth="1"/>
+    <col min="4" max="4" width="58.4903846153846" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25087,7 +25183,7 @@
   <sheetPr/>
   <dimension ref="A3:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -25095,7 +25191,7 @@
   <cols>
     <col min="1" max="1" width="8.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="26.9134615384615" style="29" customWidth="1"/>
     <col min="4" max="4" width="40.5" style="29" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="29" customWidth="1"/>
     <col min="6" max="16384" width="9" style="29"/>
@@ -25715,17 +25811,17 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:E35"/>
+  <dimension ref="A3:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="45.125" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="36.5384615384615" customWidth="1"/>
+    <col min="4" max="4" width="81.5673076923077" customWidth="1"/>
+    <col min="5" max="5" width="35.5673076923077" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
@@ -25982,7 +26078,7 @@
         <v>2791</v>
       </c>
       <c r="D20" s="22" t="str">
-        <f t="shared" ref="D20:D35" si="0">"UIRes/Common/Icon/Welfare/"&amp;E20</f>
+        <f t="shared" ref="D20:D44" si="0">"UIRes/Common/Icon/Welfare/"&amp;E20</f>
         <v>UIRes/Common/Icon/Welfare/ttczshl_ttfl_icon</v>
       </c>
       <c r="E20" t="s">
@@ -26212,6 +26308,118 @@
       </c>
       <c r="E35" t="s">
         <v>2835</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="20" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>2838</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="20" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>2842</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="20" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>2846</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="20" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>2849</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>2850</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="20" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="20" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>2857</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>2858</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="20" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>2861</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>2862</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="20" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>2866</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2867</v>
       </c>
     </row>
   </sheetData>
@@ -26226,7 +26434,7 @@
   <sheetPr/>
   <dimension ref="A3:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
@@ -26300,19 +26508,19 @@
     </row>
     <row r="7" ht="17.6" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>2836</v>
+        <v>2868</v>
       </c>
       <c r="B7" s="6">
         <v>300001</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>2837</v>
+        <v>2869</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2838</v>
+        <v>2870</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2839</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="8" ht="17.6" spans="1:5">
@@ -26321,13 +26529,13 @@
         <v>300002</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>2840</v>
+        <v>2872</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2841</v>
+        <v>2873</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2842</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="9" ht="17.6" spans="1:5">
@@ -26336,13 +26544,13 @@
         <v>300003</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>2843</v>
+        <v>2875</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2844</v>
+        <v>2876</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2845</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="10" ht="17.6" spans="2:5">
@@ -26350,13 +26558,13 @@
         <v>300004</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>2846</v>
+        <v>2878</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2847</v>
+        <v>2879</v>
       </c>
       <c r="E10" t="s">
-        <v>2848</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="11" ht="17.6" spans="2:5">
@@ -26364,13 +26572,13 @@
         <v>300005</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>2849</v>
+        <v>2881</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2850</v>
+        <v>2882</v>
       </c>
       <c r="E11" t="s">
-        <v>2851</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="12" ht="17.6" spans="2:5">
@@ -26378,13 +26586,13 @@
         <v>300006</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>2852</v>
+        <v>2884</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2853</v>
+        <v>2885</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>2854</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="13" ht="17.6" spans="2:5">
@@ -26392,13 +26600,13 @@
         <v>300007</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>2855</v>
+        <v>2887</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2856</v>
+        <v>2888</v>
       </c>
       <c r="E13" t="s">
-        <v>2857</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="14" ht="17.6" spans="2:5">
@@ -26406,13 +26614,13 @@
         <v>300008</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>2858</v>
+        <v>2890</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2859</v>
+        <v>2891</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>2860</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="15" ht="17.6" spans="2:5">
@@ -26420,13 +26628,13 @@
         <v>300009</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>2861</v>
+        <v>2893</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2862</v>
+        <v>2894</v>
       </c>
       <c r="E15" t="s">
-        <v>2863</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="16" ht="17.6" spans="2:5">
@@ -26434,13 +26642,13 @@
         <v>300010</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>2864</v>
+        <v>2896</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2865</v>
+        <v>2897</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>2866</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="17" ht="17.6" spans="2:5">
@@ -26448,30 +26656,30 @@
         <v>300011</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>2867</v>
+        <v>2899</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2868</v>
+        <v>2900</v>
       </c>
       <c r="E17" t="s">
-        <v>2869</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="18" ht="17.6" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>2870</v>
+        <v>2902</v>
       </c>
       <c r="B18" s="8">
         <v>300012</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>2871</v>
+        <v>2903</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>2872</v>
+        <v>2904</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>2873</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="19" ht="17.6" spans="1:5">
@@ -26480,13 +26688,13 @@
         <v>300013</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>2874</v>
+        <v>2906</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>2875</v>
+        <v>2907</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>2876</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="20" ht="17.6" spans="1:5">
@@ -26495,13 +26703,13 @@
         <v>300014</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>2877</v>
+        <v>2909</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>2878</v>
+        <v>2910</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>2879</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="21" ht="17.6" spans="2:5">
@@ -26509,13 +26717,13 @@
         <v>300015</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>2880</v>
+        <v>2912</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>2881</v>
+        <v>2913</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>2882</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="22" ht="17.6" spans="2:5">
@@ -26523,13 +26731,13 @@
         <v>300016</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>2883</v>
+        <v>2915</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>2884</v>
+        <v>2916</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>2885</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="23" ht="17.6" spans="2:5">
@@ -26537,13 +26745,13 @@
         <v>300017</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>2886</v>
+        <v>2918</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>2887</v>
+        <v>2919</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>2888</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="24" ht="17.6" spans="2:5">
@@ -26551,13 +26759,13 @@
         <v>300018</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>2889</v>
+        <v>2921</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>2890</v>
+        <v>2922</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>2891</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="25" ht="17.6" spans="2:5">
@@ -26565,13 +26773,13 @@
         <v>300019</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>2892</v>
+        <v>2924</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>2893</v>
+        <v>2925</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>2894</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="26" ht="17.6" spans="2:5">
@@ -26579,13 +26787,13 @@
         <v>300020</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>2895</v>
+        <v>2927</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>2896</v>
+        <v>2928</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>2897</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="27" ht="17.6" spans="2:5">
@@ -26593,13 +26801,13 @@
         <v>300021</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>2898</v>
+        <v>2930</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>2899</v>
+        <v>2931</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>2900</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="28" ht="17.6" spans="2:5">
@@ -26607,30 +26815,30 @@
         <v>300022</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>2901</v>
+        <v>2933</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>2902</v>
+        <v>2934</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>2903</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="29" ht="17.6" spans="1:5">
       <c r="A29" s="11" t="s">
-        <v>2904</v>
+        <v>2936</v>
       </c>
       <c r="B29" s="12">
         <v>300023</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>2905</v>
+        <v>2937</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>2906</v>
+        <v>2938</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>2907</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="30" ht="17.6" spans="1:5">
@@ -26639,13 +26847,13 @@
         <v>300024</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>2908</v>
+        <v>2940</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>2909</v>
+        <v>2941</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>2910</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="31" ht="17.6" spans="1:5">
@@ -26654,13 +26862,13 @@
         <v>300025</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>2911</v>
+        <v>2943</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>2912</v>
+        <v>2944</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>2913</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="32" ht="17.6" spans="2:5">
@@ -26668,13 +26876,13 @@
         <v>300026</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>2914</v>
+        <v>2946</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>2915</v>
+        <v>2947</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>2916</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="33" ht="17.6" spans="2:5">
@@ -26682,13 +26890,13 @@
         <v>300027</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>2917</v>
+        <v>2949</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>2918</v>
+        <v>2950</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>2919</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="34" ht="17.6" spans="2:5">
@@ -26696,13 +26904,13 @@
         <v>300028</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>2920</v>
+        <v>2952</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>2921</v>
+        <v>2953</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>2922</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="35" ht="17.6" spans="2:5">
@@ -26710,13 +26918,13 @@
         <v>300029</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>2923</v>
+        <v>2955</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>2924</v>
+        <v>2956</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>2925</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="36" ht="17.6" spans="2:5">
@@ -26724,13 +26932,13 @@
         <v>300030</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>2926</v>
+        <v>2958</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>2927</v>
+        <v>2959</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>2928</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="37" ht="17.6" spans="2:5">
@@ -26738,13 +26946,13 @@
         <v>300031</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>2929</v>
+        <v>2961</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>2930</v>
+        <v>2962</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>2931</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="38" ht="17.6" spans="2:5">
@@ -26752,13 +26960,13 @@
         <v>300032</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>2932</v>
+        <v>2964</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>2933</v>
+        <v>2965</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>2934</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="39" ht="17.6" spans="2:5">
@@ -26766,30 +26974,30 @@
         <v>300033</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>2935</v>
+        <v>2967</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>2936</v>
+        <v>2968</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>2937</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="40" ht="17.6" spans="1:5">
       <c r="A40" s="14" t="s">
-        <v>2938</v>
+        <v>2970</v>
       </c>
       <c r="B40" s="15">
         <v>300034</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>2939</v>
+        <v>2971</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>2940</v>
+        <v>2972</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>2941</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="41" ht="17.6" spans="1:5">
@@ -26798,13 +27006,13 @@
         <v>300035</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>2942</v>
+        <v>2974</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>2943</v>
+        <v>2975</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>2944</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="42" ht="17.6" spans="2:5">
@@ -26812,13 +27020,13 @@
         <v>300036</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>2945</v>
+        <v>2977</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>2946</v>
+        <v>2978</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>2947</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="43" ht="17.6" spans="2:5">
@@ -26826,13 +27034,13 @@
         <v>300037</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>2948</v>
+        <v>2980</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>2949</v>
+        <v>2981</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>2950</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="44" ht="17.6" spans="2:5">
@@ -26840,13 +27048,13 @@
         <v>300038</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>2951</v>
+        <v>2983</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>2952</v>
+        <v>2984</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>2953</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="45" ht="17.6" spans="2:5">
@@ -26854,13 +27062,13 @@
         <v>300039</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>2954</v>
+        <v>2986</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>2955</v>
+        <v>2987</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>2956</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="46" ht="17.6" spans="2:5">
@@ -26868,13 +27076,13 @@
         <v>300040</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>2957</v>
+        <v>2989</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>2958</v>
+        <v>2990</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>2959</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="47" ht="17.6" spans="2:5">
@@ -26882,13 +27090,13 @@
         <v>300041</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>2960</v>
+        <v>2992</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>2961</v>
+        <v>2993</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>2962</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="48" ht="17.6" spans="2:5">
@@ -26896,13 +27104,13 @@
         <v>300042</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>2963</v>
+        <v>2995</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>2964</v>
+        <v>2996</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>2965</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="49" ht="17.6" spans="2:5">
@@ -26910,30 +27118,30 @@
         <v>300043</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>2966</v>
+        <v>2998</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>2967</v>
+        <v>2999</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>2968</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="50" ht="17.6" spans="1:5">
       <c r="A50" s="14" t="s">
-        <v>2969</v>
+        <v>3001</v>
       </c>
       <c r="B50" s="15">
         <v>300044</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>2970</v>
+        <v>3002</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>2971</v>
+        <v>3003</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>2972</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="51" ht="17.6" spans="1:5">
@@ -26942,13 +27150,13 @@
         <v>300045</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>2973</v>
+        <v>3005</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>2974</v>
+        <v>3006</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>2975</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="52" ht="17.6" spans="2:5">
@@ -26956,13 +27164,13 @@
         <v>300046</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>2976</v>
+        <v>3008</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>2977</v>
+        <v>3009</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>2978</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="53" ht="17.6" spans="2:5">
@@ -26970,13 +27178,13 @@
         <v>300047</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>2979</v>
+        <v>3011</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>2980</v>
+        <v>3012</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>2981</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="54" ht="17.6" spans="2:5">
@@ -26984,13 +27192,13 @@
         <v>300048</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>2982</v>
+        <v>3014</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>2983</v>
+        <v>3015</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>2984</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="55" ht="17.6" spans="2:5">
@@ -26998,13 +27206,13 @@
         <v>300049</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>2985</v>
+        <v>3017</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>2986</v>
+        <v>3018</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>2987</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="56" ht="17.6" spans="2:5">
@@ -27012,13 +27220,13 @@
         <v>300050</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>2988</v>
+        <v>3020</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>2989</v>
+        <v>3021</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>2990</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="57" ht="17.6" spans="2:5">
@@ -27026,13 +27234,13 @@
         <v>300051</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>2991</v>
+        <v>3023</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>2992</v>
+        <v>3024</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>2993</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="58" ht="17.6" spans="2:5">
@@ -27040,13 +27248,13 @@
         <v>300052</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>2994</v>
+        <v>3026</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>2995</v>
+        <v>3027</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>2996</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="59" ht="17.6" spans="2:5">
@@ -27054,30 +27262,30 @@
         <v>300053</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>2997</v>
+        <v>3029</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>2998</v>
+        <v>3030</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>2999</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="60" ht="17.6" spans="1:5">
       <c r="A60" s="17" t="s">
-        <v>3000</v>
+        <v>3032</v>
       </c>
       <c r="B60" s="17">
         <v>300054</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>3001</v>
+        <v>3033</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>3002</v>
+        <v>3034</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>3003</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="61" ht="17.6" spans="2:5">
@@ -27085,13 +27293,13 @@
         <v>300055</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>3004</v>
+        <v>3036</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>3005</v>
+        <v>3037</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>3006</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="62" ht="17.6" spans="2:5">
@@ -27099,13 +27307,13 @@
         <v>300056</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>3007</v>
+        <v>3039</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>3008</v>
+        <v>3040</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>3009</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="63" ht="17.6" spans="2:5">
@@ -27113,13 +27321,13 @@
         <v>300057</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>3010</v>
+        <v>3042</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>3011</v>
+        <v>3043</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>3012</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="64" ht="17.6" spans="2:5">
@@ -27127,13 +27335,13 @@
         <v>300058</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>3013</v>
+        <v>3045</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>3014</v>
+        <v>3046</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>3015</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="65" ht="17.6" spans="2:5">
@@ -27141,13 +27349,13 @@
         <v>300059</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>3016</v>
+        <v>3048</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>3017</v>
+        <v>3049</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>3018</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="66" ht="17.6" spans="2:5">
@@ -27155,13 +27363,13 @@
         <v>300060</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>3019</v>
+        <v>3051</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>3020</v>
+        <v>3052</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>3021</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="67" ht="17.6" spans="2:5">
@@ -27169,13 +27377,13 @@
         <v>300061</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>3022</v>
+        <v>3054</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>3023</v>
+        <v>3055</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>3024</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="68" ht="17.6" spans="2:5">
@@ -27183,10 +27391,10 @@
         <v>300062</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>3025</v>
+        <v>3057</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>3026</v>
+        <v>3058</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>2625</v>
@@ -27197,10 +27405,10 @@
         <v>300063</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>3027</v>
+        <v>3059</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>3028</v>
+        <v>3060</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>2613</v>
@@ -27211,13 +27419,13 @@
         <v>300064</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>3029</v>
+        <v>3061</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>3030</v>
+        <v>3062</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>3031</v>
+        <v>3063</v>
       </c>
     </row>
   </sheetData>
@@ -27233,7 +27441,7 @@
   <dimension ref="A3:E8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -27307,19 +27515,19 @@
     </row>
     <row r="7" ht="17.6" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>2836</v>
+        <v>2868</v>
       </c>
       <c r="B7" s="6">
         <v>310001</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3032</v>
+        <v>3064</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>3033</v>
+        <v>3065</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>3034</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="8" ht="17.6" spans="1:5">
@@ -27328,13 +27536,13 @@
         <v>310002</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>3035</v>
+        <v>3067</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>3033</v>
+        <v>3065</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>3034</v>
+        <v>3066</v>
       </c>
     </row>
   </sheetData>
@@ -27427,10 +27635,10 @@
         <v>320001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3036</v>
+        <v>3068</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3037</v>
+        <v>3069</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2814</v>
@@ -27442,10 +27650,10 @@
         <v>320002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3038</v>
+        <v>3070</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3039</v>
+        <v>3071</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>2820</v>
@@ -27456,10 +27664,10 @@
         <v>320003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3040</v>
+        <v>3072</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3037</v>
+        <v>3069</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2814</v>
@@ -27470,10 +27678,10 @@
         <v>320004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3041</v>
+        <v>3073</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>3037</v>
+        <v>3069</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>2814</v>
@@ -27484,10 +27692,10 @@
         <v>320005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3042</v>
+        <v>3074</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3037</v>
+        <v>3069</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>2814</v>
@@ -27498,10 +27706,10 @@
         <v>320006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3043</v>
+        <v>3075</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3037</v>
+        <v>3069</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2814</v>
@@ -27518,8 +27726,8 @@
   <sheetPr/>
   <dimension ref="A3:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -27597,13 +27805,13 @@
         <v>330001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3044</v>
+        <v>3076</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3045</v>
+        <v>3077</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3046</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="8" ht="20.4" spans="1:5">
@@ -27612,13 +27820,13 @@
         <v>330002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3047</v>
+        <v>3079</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3048</v>
+        <v>3080</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3049</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="9" ht="20.4" spans="1:5">
@@ -27627,13 +27835,13 @@
         <v>330003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3050</v>
+        <v>3082</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3051</v>
+        <v>3083</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3052</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="10" ht="20.4" spans="1:5">
@@ -27642,13 +27850,13 @@
         <v>330004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3053</v>
+        <v>3085</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>3054</v>
+        <v>3086</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>3055</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="11" ht="20.4" spans="1:5">
@@ -27657,13 +27865,13 @@
         <v>330005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3056</v>
+        <v>3088</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3057</v>
+        <v>3089</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>3058</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:5">
@@ -27672,13 +27880,13 @@
         <v>330006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3059</v>
+        <v>3091</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3060</v>
+        <v>3092</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>3061</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="13" ht="20.4" spans="1:5">
@@ -27687,13 +27895,13 @@
         <v>330007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3062</v>
+        <v>3094</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3063</v>
+        <v>3095</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>3064</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="14" ht="20.4" spans="1:5">
@@ -27702,13 +27910,13 @@
         <v>330008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3065</v>
+        <v>3097</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>3066</v>
+        <v>3098</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3067</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="15" ht="20.4" spans="1:5">
@@ -27717,13 +27925,13 @@
         <v>330009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3068</v>
+        <v>3100</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3069</v>
+        <v>3101</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3070</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="16" ht="20.4" spans="1:5">
@@ -27732,13 +27940,13 @@
         <v>330010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3071</v>
+        <v>3103</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>3072</v>
+        <v>3104</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>3073</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="17" ht="20.4" spans="1:5">
@@ -27747,13 +27955,13 @@
         <v>330011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3074</v>
+        <v>3106</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>3075</v>
+        <v>3107</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>3076</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="18" ht="20.4" spans="1:5">
@@ -27762,13 +27970,13 @@
         <v>330012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3077</v>
+        <v>3109</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>3078</v>
+        <v>3110</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>3079</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="19" ht="20.4" spans="1:5">
@@ -27777,13 +27985,13 @@
         <v>330013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3080</v>
+        <v>3112</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3081</v>
+        <v>3113</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3082</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="20" ht="20.4" spans="1:5">
@@ -27792,13 +28000,13 @@
         <v>330014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>3083</v>
+        <v>3115</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>3084</v>
+        <v>3116</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>3085</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="21" ht="20.4" spans="1:5">
@@ -27807,13 +28015,13 @@
         <v>330015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>3086</v>
+        <v>3118</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>3087</v>
+        <v>3119</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>3088</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="22" ht="20.4" spans="1:5">
@@ -27822,13 +28030,13 @@
         <v>330016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>3089</v>
+        <v>3121</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>3090</v>
+        <v>3122</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>3091</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="23" ht="20.4" spans="1:5">
@@ -27837,13 +28045,13 @@
         <v>330017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>3092</v>
+        <v>3124</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>3093</v>
+        <v>3125</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>3094</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="24" ht="20.4" spans="1:5">
@@ -27852,13 +28060,13 @@
         <v>330018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>3095</v>
+        <v>3127</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>3096</v>
+        <v>3128</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>3097</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="25" ht="20.4" spans="1:5">
@@ -27867,13 +28075,13 @@
         <v>330019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>3098</v>
+        <v>3130</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>3099</v>
+        <v>3131</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>3100</v>
+        <v>3132</v>
       </c>
     </row>
   </sheetData>
@@ -27888,7 +28096,7 @@
   <sheetPr/>
   <dimension ref="A3:E118"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M114" sqref="M114"/>
     </sheetView>
   </sheetViews>
@@ -30070,16 +30278,16 @@
   <sheetPr/>
   <dimension ref="A3:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="34.4519230769231" customWidth="1"/>
     <col min="4" max="4" width="47.125" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="31.7307692307692" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
@@ -30979,9 +31187,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="29.9615384615385" customWidth="1"/>
+    <col min="4" max="4" width="53.6730769230769" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
@@ -31223,15 +31431,17 @@
   <sheetPr/>
   <dimension ref="A3:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
+    <sheetView topLeftCell="A105" workbookViewId="0">
       <selection activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="34.6153846153846" customWidth="1"/>
     <col min="4" max="4" width="52.125" customWidth="1"/>
     <col min="5" max="5" width="36.375" customWidth="1"/>
+    <col min="6" max="6" width="38.1442307692308" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5">

--- a/exceldata/excel/all/T-图标表.xlsx
+++ b/exceldata/excel/all/T-图标表.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="3133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3795" uniqueCount="3129">
   <si>
     <t>内容</t>
   </si>
@@ -11103,28 +11103,16 @@
     <t>2800035</t>
   </si>
   <si>
-    <t>精良装备1</t>
-  </si>
-  <si>
-    <t>UIRes/Common/Icon/Welfare/jingliangzhuangbei1_icon</t>
-  </si>
-  <si>
-    <t>jingliangzhuangbei1_icon</t>
+    <t>情人礼包</t>
+  </si>
+  <si>
+    <t>UIRes/Common/Icon/Welfare/qingrenlibao_icon</t>
+  </si>
+  <si>
+    <t>qingrenlibao_icon</t>
   </si>
   <si>
     <t>2800036</t>
-  </si>
-  <si>
-    <t>情人礼包</t>
-  </si>
-  <si>
-    <t>UIRes/Common/Icon/Welfare/qingrenlibao_icon</t>
-  </si>
-  <si>
-    <t>qingrenlibao_icon</t>
-  </si>
-  <si>
-    <t>2800037</t>
   </si>
   <si>
     <t>英雄礼包</t>
@@ -25811,10 +25799,10 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:E43"/>
+  <dimension ref="A3:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -26406,20 +26394,6 @@
       </c>
       <c r="E42" t="s">
         <v>2863</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="20" t="s">
-        <v>2864</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>2865</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>2866</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2867</v>
       </c>
     </row>
   </sheetData>
@@ -26508,19 +26482,19 @@
     </row>
     <row r="7" ht="17.6" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>2868</v>
+        <v>2864</v>
       </c>
       <c r="B7" s="6">
         <v>300001</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>2869</v>
+        <v>2865</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2870</v>
+        <v>2866</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2871</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="8" ht="17.6" spans="1:5">
@@ -26529,13 +26503,13 @@
         <v>300002</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>2872</v>
+        <v>2868</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2873</v>
+        <v>2869</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="9" ht="17.6" spans="1:5">
@@ -26544,13 +26518,13 @@
         <v>300003</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>2875</v>
+        <v>2871</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2876</v>
+        <v>2872</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2877</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="10" ht="17.6" spans="2:5">
@@ -26558,13 +26532,13 @@
         <v>300004</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>2878</v>
+        <v>2874</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2879</v>
+        <v>2875</v>
       </c>
       <c r="E10" t="s">
-        <v>2880</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="11" ht="17.6" spans="2:5">
@@ -26572,13 +26546,13 @@
         <v>300005</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>2881</v>
+        <v>2877</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2882</v>
+        <v>2878</v>
       </c>
       <c r="E11" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="12" ht="17.6" spans="2:5">
@@ -26586,13 +26560,13 @@
         <v>300006</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>2884</v>
+        <v>2880</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2885</v>
+        <v>2881</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>2886</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="13" ht="17.6" spans="2:5">
@@ -26600,13 +26574,13 @@
         <v>300007</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>2887</v>
+        <v>2883</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2888</v>
+        <v>2884</v>
       </c>
       <c r="E13" t="s">
-        <v>2889</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="14" ht="17.6" spans="2:5">
@@ -26614,13 +26588,13 @@
         <v>300008</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>2890</v>
+        <v>2886</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2891</v>
+        <v>2887</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>2892</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="15" ht="17.6" spans="2:5">
@@ -26628,13 +26602,13 @@
         <v>300009</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>2893</v>
+        <v>2889</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2894</v>
+        <v>2890</v>
       </c>
       <c r="E15" t="s">
-        <v>2895</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="16" ht="17.6" spans="2:5">
@@ -26642,13 +26616,13 @@
         <v>300010</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>2898</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="17" ht="17.6" spans="2:5">
@@ -26656,30 +26630,30 @@
         <v>300011</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
       <c r="E17" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="18" ht="17.6" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
       <c r="B18" s="8">
         <v>300012</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>2903</v>
+        <v>2899</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="19" ht="17.6" spans="1:5">
@@ -26688,13 +26662,13 @@
         <v>300013</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>2906</v>
+        <v>2902</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>2907</v>
+        <v>2903</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>2908</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="20" ht="17.6" spans="1:5">
@@ -26703,13 +26677,13 @@
         <v>300014</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>2909</v>
+        <v>2905</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="21" ht="17.6" spans="2:5">
@@ -26717,13 +26691,13 @@
         <v>300015</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="22" ht="17.6" spans="2:5">
@@ -26731,13 +26705,13 @@
         <v>300016</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>2917</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="23" ht="17.6" spans="2:5">
@@ -26745,13 +26719,13 @@
         <v>300017</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>2920</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="24" ht="17.6" spans="2:5">
@@ -26759,13 +26733,13 @@
         <v>300018</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>2921</v>
+        <v>2917</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>2922</v>
+        <v>2918</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>2923</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="25" ht="17.6" spans="2:5">
@@ -26773,13 +26747,13 @@
         <v>300019</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>2924</v>
+        <v>2920</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>2925</v>
+        <v>2921</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="26" ht="17.6" spans="2:5">
@@ -26787,13 +26761,13 @@
         <v>300020</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>2929</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="27" ht="17.6" spans="2:5">
@@ -26801,13 +26775,13 @@
         <v>300021</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>2930</v>
+        <v>2926</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>2931</v>
+        <v>2927</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>2932</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="28" ht="17.6" spans="2:5">
@@ -26815,30 +26789,30 @@
         <v>300022</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>2934</v>
+        <v>2930</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>2935</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="29" ht="17.6" spans="1:5">
       <c r="A29" s="11" t="s">
-        <v>2936</v>
+        <v>2932</v>
       </c>
       <c r="B29" s="12">
         <v>300023</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>2937</v>
+        <v>2933</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>2938</v>
+        <v>2934</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>2939</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="30" ht="17.6" spans="1:5">
@@ -26847,13 +26821,13 @@
         <v>300024</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>2940</v>
+        <v>2936</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>2941</v>
+        <v>2937</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>2942</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="31" ht="17.6" spans="1:5">
@@ -26862,13 +26836,13 @@
         <v>300025</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>2943</v>
+        <v>2939</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>2944</v>
+        <v>2940</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>2945</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="32" ht="17.6" spans="2:5">
@@ -26876,13 +26850,13 @@
         <v>300026</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>2946</v>
+        <v>2942</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>2948</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="33" ht="17.6" spans="2:5">
@@ -26890,13 +26864,13 @@
         <v>300027</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>2949</v>
+        <v>2945</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>2950</v>
+        <v>2946</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>2951</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="34" ht="17.6" spans="2:5">
@@ -26904,13 +26878,13 @@
         <v>300028</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>2952</v>
+        <v>2948</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>2953</v>
+        <v>2949</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>2954</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="35" ht="17.6" spans="2:5">
@@ -26918,13 +26892,13 @@
         <v>300029</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>2956</v>
+        <v>2952</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>2957</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="36" ht="17.6" spans="2:5">
@@ -26932,13 +26906,13 @@
         <v>300030</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>2958</v>
+        <v>2954</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>2960</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="37" ht="17.6" spans="2:5">
@@ -26946,13 +26920,13 @@
         <v>300031</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>2961</v>
+        <v>2957</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>2963</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="38" ht="17.6" spans="2:5">
@@ -26960,13 +26934,13 @@
         <v>300032</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>2964</v>
+        <v>2960</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>2965</v>
+        <v>2961</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>2966</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="39" ht="17.6" spans="2:5">
@@ -26974,30 +26948,30 @@
         <v>300033</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>2967</v>
+        <v>2963</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>2968</v>
+        <v>2964</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>2969</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="40" ht="17.6" spans="1:5">
       <c r="A40" s="14" t="s">
-        <v>2970</v>
+        <v>2966</v>
       </c>
       <c r="B40" s="15">
         <v>300034</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>2971</v>
+        <v>2967</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>2972</v>
+        <v>2968</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>2973</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="41" ht="17.6" spans="1:5">
@@ -27006,13 +26980,13 @@
         <v>300035</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>2974</v>
+        <v>2970</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>2975</v>
+        <v>2971</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>2976</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="42" ht="17.6" spans="2:5">
@@ -27020,13 +26994,13 @@
         <v>300036</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>2977</v>
+        <v>2973</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>2978</v>
+        <v>2974</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>2979</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="43" ht="17.6" spans="2:5">
@@ -27034,13 +27008,13 @@
         <v>300037</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>2980</v>
+        <v>2976</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>2981</v>
+        <v>2977</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>2982</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="44" ht="17.6" spans="2:5">
@@ -27048,13 +27022,13 @@
         <v>300038</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>2983</v>
+        <v>2979</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>2984</v>
+        <v>2980</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>2985</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="45" ht="17.6" spans="2:5">
@@ -27062,13 +27036,13 @@
         <v>300039</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>2986</v>
+        <v>2982</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>2987</v>
+        <v>2983</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>2988</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="46" ht="17.6" spans="2:5">
@@ -27076,13 +27050,13 @@
         <v>300040</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>2989</v>
+        <v>2985</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>2990</v>
+        <v>2986</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>2991</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="47" ht="17.6" spans="2:5">
@@ -27090,13 +27064,13 @@
         <v>300041</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>2992</v>
+        <v>2988</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>2993</v>
+        <v>2989</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>2994</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="48" ht="17.6" spans="2:5">
@@ -27104,13 +27078,13 @@
         <v>300042</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>2995</v>
+        <v>2991</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>2996</v>
+        <v>2992</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>2997</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="49" ht="17.6" spans="2:5">
@@ -27118,30 +27092,30 @@
         <v>300043</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>2998</v>
+        <v>2994</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>2999</v>
+        <v>2995</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>3000</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="50" ht="17.6" spans="1:5">
       <c r="A50" s="14" t="s">
-        <v>3001</v>
+        <v>2997</v>
       </c>
       <c r="B50" s="15">
         <v>300044</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>3002</v>
+        <v>2998</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>3003</v>
+        <v>2999</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>3004</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="51" ht="17.6" spans="1:5">
@@ -27150,13 +27124,13 @@
         <v>300045</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>3006</v>
+        <v>3002</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>3007</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="52" ht="17.6" spans="2:5">
@@ -27164,13 +27138,13 @@
         <v>300046</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>3010</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="53" ht="17.6" spans="2:5">
@@ -27178,13 +27152,13 @@
         <v>300047</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>3011</v>
+        <v>3007</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>3013</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="54" ht="17.6" spans="2:5">
@@ -27192,13 +27166,13 @@
         <v>300048</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>3015</v>
+        <v>3011</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="55" ht="17.6" spans="2:5">
@@ -27206,13 +27180,13 @@
         <v>300049</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>3017</v>
+        <v>3013</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>3018</v>
+        <v>3014</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>3019</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="56" ht="17.6" spans="2:5">
@@ -27220,13 +27194,13 @@
         <v>300050</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>3020</v>
+        <v>3016</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>3021</v>
+        <v>3017</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>3022</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="57" ht="17.6" spans="2:5">
@@ -27234,13 +27208,13 @@
         <v>300051</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>3023</v>
+        <v>3019</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>3024</v>
+        <v>3020</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>3025</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="58" ht="17.6" spans="2:5">
@@ -27248,13 +27222,13 @@
         <v>300052</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>3027</v>
+        <v>3023</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>3028</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="59" ht="17.6" spans="2:5">
@@ -27262,30 +27236,30 @@
         <v>300053</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>3029</v>
+        <v>3025</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>3030</v>
+        <v>3026</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>3031</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="60" ht="17.6" spans="1:5">
       <c r="A60" s="17" t="s">
-        <v>3032</v>
+        <v>3028</v>
       </c>
       <c r="B60" s="17">
         <v>300054</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>3033</v>
+        <v>3029</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>3034</v>
+        <v>3030</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>3035</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="61" ht="17.6" spans="2:5">
@@ -27293,13 +27267,13 @@
         <v>300055</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>3036</v>
+        <v>3032</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>3037</v>
+        <v>3033</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>3038</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="62" ht="17.6" spans="2:5">
@@ -27307,13 +27281,13 @@
         <v>300056</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>3039</v>
+        <v>3035</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>3040</v>
+        <v>3036</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>3041</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="63" ht="17.6" spans="2:5">
@@ -27321,13 +27295,13 @@
         <v>300057</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>3042</v>
+        <v>3038</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>3043</v>
+        <v>3039</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>3044</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="64" ht="17.6" spans="2:5">
@@ -27335,13 +27309,13 @@
         <v>300058</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>3046</v>
+        <v>3042</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="65" ht="17.6" spans="2:5">
@@ -27349,13 +27323,13 @@
         <v>300059</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>3048</v>
+        <v>3044</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>3049</v>
+        <v>3045</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="66" ht="17.6" spans="2:5">
@@ -27363,13 +27337,13 @@
         <v>300060</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>3053</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="67" ht="17.6" spans="2:5">
@@ -27377,13 +27351,13 @@
         <v>300061</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>3054</v>
+        <v>3050</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>3056</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="68" ht="17.6" spans="2:5">
@@ -27391,10 +27365,10 @@
         <v>300062</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>3057</v>
+        <v>3053</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>3058</v>
+        <v>3054</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>2625</v>
@@ -27405,10 +27379,10 @@
         <v>300063</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>3059</v>
+        <v>3055</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>3060</v>
+        <v>3056</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>2613</v>
@@ -27419,13 +27393,13 @@
         <v>300064</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>3061</v>
+        <v>3057</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>3063</v>
+        <v>3059</v>
       </c>
     </row>
   </sheetData>
@@ -27515,19 +27489,19 @@
     </row>
     <row r="7" ht="17.6" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>2868</v>
+        <v>2864</v>
       </c>
       <c r="B7" s="6">
         <v>310001</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3064</v>
+        <v>3060</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>3065</v>
+        <v>3061</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="8" ht="17.6" spans="1:5">
@@ -27536,13 +27510,13 @@
         <v>310002</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>3065</v>
+        <v>3061</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
     </row>
   </sheetData>
@@ -27635,10 +27609,10 @@
         <v>320001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3068</v>
+        <v>3064</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2814</v>
@@ -27650,10 +27624,10 @@
         <v>320002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3070</v>
+        <v>3066</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>2820</v>
@@ -27664,10 +27638,10 @@
         <v>320003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2814</v>
@@ -27678,10 +27652,10 @@
         <v>320004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>2814</v>
@@ -27692,10 +27666,10 @@
         <v>320005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>2814</v>
@@ -27706,10 +27680,10 @@
         <v>320006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3075</v>
+        <v>3071</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2814</v>
@@ -27805,13 +27779,13 @@
         <v>330001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3076</v>
+        <v>3072</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3078</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="8" ht="20.4" spans="1:5">
@@ -27820,13 +27794,13 @@
         <v>330002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3079</v>
+        <v>3075</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3080</v>
+        <v>3076</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3081</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="9" ht="20.4" spans="1:5">
@@ -27835,13 +27809,13 @@
         <v>330003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3082</v>
+        <v>3078</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3083</v>
+        <v>3079</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3084</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="10" ht="20.4" spans="1:5">
@@ -27850,13 +27824,13 @@
         <v>330004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3085</v>
+        <v>3081</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>3087</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="11" ht="20.4" spans="1:5">
@@ -27865,13 +27839,13 @@
         <v>330005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>3090</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:5">
@@ -27880,13 +27854,13 @@
         <v>330006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3091</v>
+        <v>3087</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3092</v>
+        <v>3088</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>3093</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="13" ht="20.4" spans="1:5">
@@ -27895,13 +27869,13 @@
         <v>330007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3094</v>
+        <v>3090</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3095</v>
+        <v>3091</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>3096</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="14" ht="20.4" spans="1:5">
@@ -27910,13 +27884,13 @@
         <v>330008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3097</v>
+        <v>3093</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="15" ht="20.4" spans="1:5">
@@ -27925,13 +27899,13 @@
         <v>330009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3100</v>
+        <v>3096</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3102</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="16" ht="20.4" spans="1:5">
@@ -27940,13 +27914,13 @@
         <v>330010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3103</v>
+        <v>3099</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>3104</v>
+        <v>3100</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>3105</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="17" ht="20.4" spans="1:5">
@@ -27955,13 +27929,13 @@
         <v>330011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3106</v>
+        <v>3102</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="18" ht="20.4" spans="1:5">
@@ -27970,13 +27944,13 @@
         <v>330012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3109</v>
+        <v>3105</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="19" ht="20.4" spans="1:5">
@@ -27985,13 +27959,13 @@
         <v>330013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3113</v>
+        <v>3109</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="20" ht="20.4" spans="1:5">
@@ -28000,13 +27974,13 @@
         <v>330014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>3115</v>
+        <v>3111</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>3116</v>
+        <v>3112</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>3117</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="21" ht="20.4" spans="1:5">
@@ -28015,13 +27989,13 @@
         <v>330015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>3118</v>
+        <v>3114</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>3120</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="22" ht="20.4" spans="1:5">
@@ -28030,13 +28004,13 @@
         <v>330016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="23" ht="20.4" spans="1:5">
@@ -28045,13 +28019,13 @@
         <v>330017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>3126</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="24" ht="20.4" spans="1:5">
@@ -28060,13 +28034,13 @@
         <v>330018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="25" ht="20.4" spans="1:5">
@@ -28075,13 +28049,13 @@
         <v>330019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/T-图标表.xlsx
+++ b/exceldata/excel/all/T-图标表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12220" tabRatio="651" firstSheet="27" activeTab="29"/>
+    <workbookView windowWidth="27900" windowHeight="12240" tabRatio="651" firstSheet="25" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="#ID分配" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3795" uniqueCount="3129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="3143">
   <si>
     <t>内容</t>
   </si>
@@ -11703,13 +11703,55 @@
     <t>UIResBG/RankActivity/MiniPoster/banner_paidui</t>
   </si>
   <si>
-    <t>王朝冲榜标签</t>
+    <t>淫魔天堂</t>
   </si>
   <si>
     <t>UIResBG/RankActivity/MiniPoster/banner_wangchao</t>
   </si>
   <si>
-    <t>banner_wangchao</t>
+    <t>yinmotiantang</t>
+  </si>
+  <si>
+    <t>性爱男女</t>
+  </si>
+  <si>
+    <t>xinggannannv</t>
+  </si>
+  <si>
+    <t>色情狂魔</t>
+  </si>
+  <si>
+    <t>seqingkuangmo</t>
+  </si>
+  <si>
+    <t>商业霸主</t>
+  </si>
+  <si>
+    <t>shangyebazhu</t>
+  </si>
+  <si>
+    <t>商业大亨</t>
+  </si>
+  <si>
+    <t>shangyedaheng</t>
+  </si>
+  <si>
+    <t>色胆如天</t>
+  </si>
+  <si>
+    <t>sedanbaotian</t>
+  </si>
+  <si>
+    <t>富有智慧</t>
+  </si>
+  <si>
+    <t>fuyouzhihui</t>
+  </si>
+  <si>
+    <t>足智多谋</t>
+  </si>
+  <si>
+    <t>zuzhiduomo</t>
   </si>
   <si>
     <t>活动一</t>
@@ -11924,10 +11966,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -12006,13 +12048,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -12021,8 +12056,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -12044,38 +12094,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12089,11 +12110,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -12104,18 +12168,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -12123,35 +12175,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -12218,13 +12260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12242,7 +12284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12254,7 +12296,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12266,7 +12320,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12284,25 +12398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12314,73 +12416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12486,45 +12528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -12565,170 +12568,209 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyFill="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyFill="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -12737,14 +12779,14 @@
   </cellStyleXfs>
   <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -12783,13 +12825,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12804,13 +12846,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -12830,7 +12872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -12839,7 +12881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12883,7 +12925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12904,10 +12946,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -12948,25 +12990,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="51" applyFill="1" applyAlignment="1">
@@ -12975,32 +13017,32 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="着色 2 2" xfId="1"/>
-    <cellStyle name="普通数值" xfId="2"/>
+    <cellStyle name="1表头" xfId="1"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 4" xfId="3"/>
-    <cellStyle name="常规 2" xfId="4"/>
-    <cellStyle name="1表头" xfId="5"/>
+    <cellStyle name="普通数值" xfId="4"/>
+    <cellStyle name="着色 2 2" xfId="5"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="6" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="7" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
@@ -25801,7 +25843,7 @@
   <sheetPr/>
   <dimension ref="A3:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -26406,10 +26448,10 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:E70"/>
+  <dimension ref="A3:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -27400,6 +27442,104 @@
       </c>
       <c r="E70" s="17" t="s">
         <v>3059</v>
+      </c>
+    </row>
+    <row r="71" ht="17.6" spans="2:5">
+      <c r="B71" s="17">
+        <v>300065</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>3060</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="72" ht="17.6" spans="2:5">
+      <c r="B72" s="17">
+        <v>300066</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="73" ht="17.6" spans="2:5">
+      <c r="B73" s="17">
+        <v>300067</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="74" ht="17.6" spans="2:5">
+      <c r="B74" s="17">
+        <v>300068</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>3066</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="75" ht="17.6" spans="2:5">
+      <c r="B75" s="17">
+        <v>300069</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>3068</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="76" ht="17.6" spans="2:5">
+      <c r="B76" s="17">
+        <v>300070</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="77" ht="17.6" spans="2:5">
+      <c r="B77" s="17">
+        <v>300071</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>3072</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>3073</v>
       </c>
     </row>
   </sheetData>
@@ -27495,13 +27635,13 @@
         <v>310001</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3060</v>
+        <v>3074</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>3061</v>
+        <v>3075</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>3062</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="8" ht="17.6" spans="1:5">
@@ -27510,13 +27650,13 @@
         <v>310002</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>3063</v>
+        <v>3077</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>3061</v>
+        <v>3075</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>3062</v>
+        <v>3076</v>
       </c>
     </row>
   </sheetData>
@@ -27609,10 +27749,10 @@
         <v>320001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3064</v>
+        <v>3078</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3065</v>
+        <v>3079</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2814</v>
@@ -27624,10 +27764,10 @@
         <v>320002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3066</v>
+        <v>3080</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3067</v>
+        <v>3081</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>2820</v>
@@ -27638,10 +27778,10 @@
         <v>320003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3068</v>
+        <v>3082</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3065</v>
+        <v>3079</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2814</v>
@@ -27652,10 +27792,10 @@
         <v>320004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3069</v>
+        <v>3083</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>3065</v>
+        <v>3079</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>2814</v>
@@ -27666,10 +27806,10 @@
         <v>320005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3070</v>
+        <v>3084</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3065</v>
+        <v>3079</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>2814</v>
@@ -27680,10 +27820,10 @@
         <v>320006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3071</v>
+        <v>3085</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3065</v>
+        <v>3079</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2814</v>
@@ -27701,7 +27841,7 @@
   <dimension ref="A3:E25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -27779,13 +27919,13 @@
         <v>330001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3072</v>
+        <v>3086</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3073</v>
+        <v>3087</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3074</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="8" ht="20.4" spans="1:5">
@@ -27794,13 +27934,13 @@
         <v>330002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3075</v>
+        <v>3089</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3076</v>
+        <v>3090</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3077</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="9" ht="20.4" spans="1:5">
@@ -27809,13 +27949,13 @@
         <v>330003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3078</v>
+        <v>3092</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3079</v>
+        <v>3093</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3080</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="10" ht="20.4" spans="1:5">
@@ -27824,13 +27964,13 @@
         <v>330004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3081</v>
+        <v>3095</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>3082</v>
+        <v>3096</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>3083</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="11" ht="20.4" spans="1:5">
@@ -27839,13 +27979,13 @@
         <v>330005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3084</v>
+        <v>3098</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3085</v>
+        <v>3099</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>3086</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:5">
@@ -27854,13 +27994,13 @@
         <v>330006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3087</v>
+        <v>3101</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3088</v>
+        <v>3102</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>3089</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="13" ht="20.4" spans="1:5">
@@ -27869,13 +28009,13 @@
         <v>330007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3090</v>
+        <v>3104</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3091</v>
+        <v>3105</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>3092</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="14" ht="20.4" spans="1:5">
@@ -27884,13 +28024,13 @@
         <v>330008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3093</v>
+        <v>3107</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>3094</v>
+        <v>3108</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3095</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="15" ht="20.4" spans="1:5">
@@ -27899,13 +28039,13 @@
         <v>330009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3096</v>
+        <v>3110</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3097</v>
+        <v>3111</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3098</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="16" ht="20.4" spans="1:5">
@@ -27914,13 +28054,13 @@
         <v>330010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3099</v>
+        <v>3113</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>3100</v>
+        <v>3114</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>3101</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="17" ht="20.4" spans="1:5">
@@ -27929,13 +28069,13 @@
         <v>330011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3102</v>
+        <v>3116</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>3103</v>
+        <v>3117</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>3104</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="18" ht="20.4" spans="1:5">
@@ -27944,13 +28084,13 @@
         <v>330012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3105</v>
+        <v>3119</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>3106</v>
+        <v>3120</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>3107</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="19" ht="20.4" spans="1:5">
@@ -27959,13 +28099,13 @@
         <v>330013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3108</v>
+        <v>3122</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3109</v>
+        <v>3123</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3110</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="20" ht="20.4" spans="1:5">
@@ -27974,13 +28114,13 @@
         <v>330014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>3111</v>
+        <v>3125</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>3112</v>
+        <v>3126</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>3113</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="21" ht="20.4" spans="1:5">
@@ -27989,13 +28129,13 @@
         <v>330015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>3114</v>
+        <v>3128</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>3115</v>
+        <v>3129</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>3116</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="22" ht="20.4" spans="1:5">
@@ -28004,13 +28144,13 @@
         <v>330016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>3117</v>
+        <v>3131</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>3118</v>
+        <v>3132</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>3119</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="23" ht="20.4" spans="1:5">
@@ -28019,13 +28159,13 @@
         <v>330017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>3120</v>
+        <v>3134</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>3121</v>
+        <v>3135</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>3122</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="24" ht="20.4" spans="1:5">
@@ -28034,13 +28174,13 @@
         <v>330018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>3123</v>
+        <v>3137</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>3124</v>
+        <v>3138</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>3125</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="25" ht="20.4" spans="1:5">
@@ -28049,13 +28189,13 @@
         <v>330019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>3126</v>
+        <v>3140</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>3127</v>
+        <v>3141</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>3128</v>
+        <v>3142</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/T-图标表.xlsx
+++ b/exceldata/excel/all/T-图标表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12240" tabRatio="651" firstSheet="25" activeTab="30"/>
+    <workbookView windowWidth="27900" windowHeight="12240" tabRatio="651" firstSheet="24" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="#ID分配" sheetId="4" r:id="rId1"/>
@@ -26450,8 +26450,8 @@
   <sheetPr/>
   <dimension ref="A3:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>

--- a/exceldata/excel/all/T-图标表.xlsx
+++ b/exceldata/excel/all/T-图标表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12240" tabRatio="651" firstSheet="24" activeTab="30"/>
+    <workbookView windowWidth="27900" windowHeight="12240" tabRatio="651" firstSheet="23" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="#ID分配" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="3143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="3147">
   <si>
     <t>内容</t>
   </si>
@@ -11703,12 +11703,18 @@
     <t>UIResBG/RankActivity/MiniPoster/banner_paidui</t>
   </si>
   <si>
+    <t>王朝冲榜标签</t>
+  </si>
+  <si>
+    <t>UIResBG/RankActivity/MiniPoster/banner_wangchao</t>
+  </si>
+  <si>
+    <t>banner_wangchao</t>
+  </si>
+  <si>
     <t>淫魔天堂</t>
   </si>
   <si>
-    <t>UIResBG/RankActivity/MiniPoster/banner_wangchao</t>
-  </si>
-  <si>
     <t>yinmotiantang</t>
   </si>
   <si>
@@ -11740,6 +11746,12 @@
   </si>
   <si>
     <t>sedanbaotian</t>
+  </si>
+  <si>
+    <t>色飞眉舞</t>
+  </si>
+  <si>
+    <t>sefeimeiwu</t>
   </si>
   <si>
     <t>富有智慧</t>
@@ -26448,10 +26460,10 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:E77"/>
+  <dimension ref="A3:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -27540,6 +27552,34 @@
       </c>
       <c r="E77" s="17" t="s">
         <v>3073</v>
+      </c>
+    </row>
+    <row r="78" ht="17.6" spans="2:5">
+      <c r="B78" s="17">
+        <v>300072</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>3074</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="79" ht="17.6" spans="2:5">
+      <c r="B79" s="17">
+        <v>300073</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>3077</v>
       </c>
     </row>
   </sheetData>
@@ -27635,13 +27675,13 @@
         <v>310001</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3074</v>
+        <v>3078</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>3075</v>
+        <v>3079</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>3076</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="8" ht="17.6" spans="1:5">
@@ -27650,13 +27690,13 @@
         <v>310002</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>3077</v>
+        <v>3081</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>3075</v>
+        <v>3079</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>3076</v>
+        <v>3080</v>
       </c>
     </row>
   </sheetData>
@@ -27749,10 +27789,10 @@
         <v>320001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3078</v>
+        <v>3082</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3079</v>
+        <v>3083</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2814</v>
@@ -27764,10 +27804,10 @@
         <v>320002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3080</v>
+        <v>3084</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3081</v>
+        <v>3085</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>2820</v>
@@ -27778,10 +27818,10 @@
         <v>320003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3082</v>
+        <v>3086</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3079</v>
+        <v>3083</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2814</v>
@@ -27792,10 +27832,10 @@
         <v>320004</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>3087</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>3083</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3079</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>2814</v>
@@ -27806,10 +27846,10 @@
         <v>320005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3084</v>
+        <v>3088</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3079</v>
+        <v>3083</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>2814</v>
@@ -27820,10 +27860,10 @@
         <v>320006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3085</v>
+        <v>3089</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3079</v>
+        <v>3083</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2814</v>
@@ -27919,13 +27959,13 @@
         <v>330001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3086</v>
+        <v>3090</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3087</v>
+        <v>3091</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3088</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="8" ht="20.4" spans="1:5">
@@ -27934,13 +27974,13 @@
         <v>330002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3089</v>
+        <v>3093</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3090</v>
+        <v>3094</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3091</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="9" ht="20.4" spans="1:5">
@@ -27949,13 +27989,13 @@
         <v>330003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3092</v>
+        <v>3096</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3093</v>
+        <v>3097</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3094</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="10" ht="20.4" spans="1:5">
@@ -27964,13 +28004,13 @@
         <v>330004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3095</v>
+        <v>3099</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>3096</v>
+        <v>3100</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>3097</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="11" ht="20.4" spans="1:5">
@@ -27979,13 +28019,13 @@
         <v>330005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3098</v>
+        <v>3102</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3099</v>
+        <v>3103</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>3100</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:5">
@@ -27994,13 +28034,13 @@
         <v>330006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3101</v>
+        <v>3105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3102</v>
+        <v>3106</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>3103</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="13" ht="20.4" spans="1:5">
@@ -28009,13 +28049,13 @@
         <v>330007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3104</v>
+        <v>3108</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3105</v>
+        <v>3109</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>3106</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="14" ht="20.4" spans="1:5">
@@ -28024,13 +28064,13 @@
         <v>330008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3107</v>
+        <v>3111</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>3108</v>
+        <v>3112</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3109</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="15" ht="20.4" spans="1:5">
@@ -28039,13 +28079,13 @@
         <v>330009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3110</v>
+        <v>3114</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3111</v>
+        <v>3115</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3112</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="16" ht="20.4" spans="1:5">
@@ -28054,13 +28094,13 @@
         <v>330010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3113</v>
+        <v>3117</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>3114</v>
+        <v>3118</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>3115</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="17" ht="20.4" spans="1:5">
@@ -28069,13 +28109,13 @@
         <v>330011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3116</v>
+        <v>3120</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>3117</v>
+        <v>3121</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>3118</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="18" ht="20.4" spans="1:5">
@@ -28084,13 +28124,13 @@
         <v>330012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3119</v>
+        <v>3123</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>3120</v>
+        <v>3124</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>3121</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="19" ht="20.4" spans="1:5">
@@ -28099,13 +28139,13 @@
         <v>330013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3122</v>
+        <v>3126</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3123</v>
+        <v>3127</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3124</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="20" ht="20.4" spans="1:5">
@@ -28114,13 +28154,13 @@
         <v>330014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>3125</v>
+        <v>3129</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>3126</v>
+        <v>3130</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>3127</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="21" ht="20.4" spans="1:5">
@@ -28129,13 +28169,13 @@
         <v>330015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>3128</v>
+        <v>3132</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>3129</v>
+        <v>3133</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>3130</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="22" ht="20.4" spans="1:5">
@@ -28144,13 +28184,13 @@
         <v>330016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>3131</v>
+        <v>3135</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>3133</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="23" ht="20.4" spans="1:5">
@@ -28159,13 +28199,13 @@
         <v>330017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>3134</v>
+        <v>3138</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>3136</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="24" ht="20.4" spans="1:5">
@@ -28174,13 +28214,13 @@
         <v>330018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>3137</v>
+        <v>3141</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>3138</v>
+        <v>3142</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>3139</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="25" ht="20.4" spans="1:5">
@@ -28189,13 +28229,13 @@
         <v>330019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>3140</v>
+        <v>3144</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>3141</v>
+        <v>3145</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/T-图标表.xlsx
+++ b/exceldata/excel/all/T-图标表.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="3147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="3156">
   <si>
     <t>内容</t>
   </si>
@@ -11715,52 +11715,79 @@
     <t>淫魔天堂</t>
   </si>
   <si>
+    <t>UIResLanguage/RankActivity/yinmotiantang</t>
+  </si>
+  <si>
     <t>yinmotiantang</t>
   </si>
   <si>
     <t>性爱男女</t>
   </si>
   <si>
+    <t>UIResLanguage/RankActivity/xinggannannv</t>
+  </si>
+  <si>
     <t>xinggannannv</t>
   </si>
   <si>
     <t>色情狂魔</t>
   </si>
   <si>
+    <t>UIResLanguage/RankActivity/seqingkuangmo</t>
+  </si>
+  <si>
     <t>seqingkuangmo</t>
   </si>
   <si>
     <t>商业霸主</t>
   </si>
   <si>
+    <t>UIResLanguage/RankActivity/shangyebazhu</t>
+  </si>
+  <si>
     <t>shangyebazhu</t>
   </si>
   <si>
     <t>商业大亨</t>
   </si>
   <si>
+    <t>UIResLanguage/RankActivity/shangyedaheng</t>
+  </si>
+  <si>
     <t>shangyedaheng</t>
   </si>
   <si>
     <t>色胆如天</t>
   </si>
   <si>
+    <t>UIResLanguage/RankActivity/sedanbaotian</t>
+  </si>
+  <si>
     <t>sedanbaotian</t>
   </si>
   <si>
     <t>色飞眉舞</t>
   </si>
   <si>
+    <t>UIResLanguage/RankActivity/sefeimeiwu</t>
+  </si>
+  <si>
     <t>sefeimeiwu</t>
   </si>
   <si>
     <t>富有智慧</t>
   </si>
   <si>
+    <t>UIResLanguage/RankActivity/fuyouzhihui</t>
+  </si>
+  <si>
     <t>fuyouzhihui</t>
   </si>
   <si>
     <t>足智多谋</t>
+  </si>
+  <si>
+    <t>UIResLanguage/RankActivity/zuzhiduomo</t>
   </si>
   <si>
     <t>zuzhiduomo</t>
@@ -26462,8 +26489,8 @@
   <sheetPr/>
   <dimension ref="A3:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -27463,11 +27490,11 @@
       <c r="C71" s="18" t="s">
         <v>3060</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>3058</v>
+      <c r="D71" s="14" t="s">
+        <v>3061</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="72" ht="17.6" spans="2:5">
@@ -27475,13 +27502,13 @@
         <v>300066</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>3062</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>3058</v>
+        <v>3063</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>3064</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>3063</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="73" ht="17.6" spans="2:5">
@@ -27489,13 +27516,13 @@
         <v>300067</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>3064</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>3058</v>
+        <v>3066</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>3067</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>3065</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="74" ht="17.6" spans="2:5">
@@ -27503,13 +27530,13 @@
         <v>300068</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>3066</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>3058</v>
+        <v>3069</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>3070</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>3067</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="75" ht="17.6" spans="2:5">
@@ -27517,13 +27544,13 @@
         <v>300069</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>3068</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>3058</v>
+        <v>3072</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>3073</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>3069</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="76" ht="17.6" spans="2:5">
@@ -27531,13 +27558,13 @@
         <v>300070</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>3070</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>3058</v>
+        <v>3075</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>3076</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>3071</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="77" ht="17.6" spans="2:5">
@@ -27545,13 +27572,13 @@
         <v>300071</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>3072</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>3058</v>
+        <v>3078</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>3079</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>3073</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="78" ht="17.6" spans="2:5">
@@ -27559,13 +27586,13 @@
         <v>300072</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>3074</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>3058</v>
+        <v>3081</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>3082</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>3075</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="79" ht="17.6" spans="2:5">
@@ -27573,13 +27600,13 @@
         <v>300073</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>3076</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>3058</v>
+        <v>3084</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>3085</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>3077</v>
+        <v>3086</v>
       </c>
     </row>
   </sheetData>
@@ -27675,13 +27702,13 @@
         <v>310001</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3078</v>
+        <v>3087</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>3079</v>
+        <v>3088</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>3080</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="8" ht="17.6" spans="1:5">
@@ -27690,13 +27717,13 @@
         <v>310002</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>3081</v>
+        <v>3090</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>3079</v>
+        <v>3088</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>3080</v>
+        <v>3089</v>
       </c>
     </row>
   </sheetData>
@@ -27789,10 +27816,10 @@
         <v>320001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3082</v>
+        <v>3091</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3083</v>
+        <v>3092</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2814</v>
@@ -27804,10 +27831,10 @@
         <v>320002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3084</v>
+        <v>3093</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3085</v>
+        <v>3094</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>2820</v>
@@ -27818,10 +27845,10 @@
         <v>320003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3086</v>
+        <v>3095</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3083</v>
+        <v>3092</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2814</v>
@@ -27832,10 +27859,10 @@
         <v>320004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3087</v>
+        <v>3096</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>3083</v>
+        <v>3092</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>2814</v>
@@ -27846,10 +27873,10 @@
         <v>320005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3088</v>
+        <v>3097</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3083</v>
+        <v>3092</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>2814</v>
@@ -27860,10 +27887,10 @@
         <v>320006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3089</v>
+        <v>3098</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3083</v>
+        <v>3092</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2814</v>
@@ -27959,13 +27986,13 @@
         <v>330001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3090</v>
+        <v>3099</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3091</v>
+        <v>3100</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3092</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="8" ht="20.4" spans="1:5">
@@ -27974,13 +28001,13 @@
         <v>330002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3093</v>
+        <v>3102</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3094</v>
+        <v>3103</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3095</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="9" ht="20.4" spans="1:5">
@@ -27989,13 +28016,13 @@
         <v>330003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3096</v>
+        <v>3105</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3097</v>
+        <v>3106</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3098</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="10" ht="20.4" spans="1:5">
@@ -28004,13 +28031,13 @@
         <v>330004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3099</v>
+        <v>3108</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>3100</v>
+        <v>3109</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>3101</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="11" ht="20.4" spans="1:5">
@@ -28019,13 +28046,13 @@
         <v>330005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3102</v>
+        <v>3111</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3103</v>
+        <v>3112</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>3104</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:5">
@@ -28034,13 +28061,13 @@
         <v>330006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3105</v>
+        <v>3114</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3106</v>
+        <v>3115</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>3107</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="13" ht="20.4" spans="1:5">
@@ -28049,13 +28076,13 @@
         <v>330007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3108</v>
+        <v>3117</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3109</v>
+        <v>3118</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>3110</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="14" ht="20.4" spans="1:5">
@@ -28064,13 +28091,13 @@
         <v>330008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3111</v>
+        <v>3120</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>3112</v>
+        <v>3121</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3113</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="15" ht="20.4" spans="1:5">
@@ -28079,13 +28106,13 @@
         <v>330009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3114</v>
+        <v>3123</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3115</v>
+        <v>3124</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3116</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="16" ht="20.4" spans="1:5">
@@ -28094,13 +28121,13 @@
         <v>330010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3117</v>
+        <v>3126</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>3118</v>
+        <v>3127</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>3119</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="17" ht="20.4" spans="1:5">
@@ -28109,13 +28136,13 @@
         <v>330011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3120</v>
+        <v>3129</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>3121</v>
+        <v>3130</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>3122</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="18" ht="20.4" spans="1:5">
@@ -28124,13 +28151,13 @@
         <v>330012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>3124</v>
+        <v>3133</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>3125</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="19" ht="20.4" spans="1:5">
@@ -28139,13 +28166,13 @@
         <v>330013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3126</v>
+        <v>3135</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3127</v>
+        <v>3136</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3128</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="20" ht="20.4" spans="1:5">
@@ -28154,13 +28181,13 @@
         <v>330014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>3129</v>
+        <v>3138</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>3130</v>
+        <v>3139</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>3131</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="21" ht="20.4" spans="1:5">
@@ -28169,13 +28196,13 @@
         <v>330015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>3132</v>
+        <v>3141</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>3133</v>
+        <v>3142</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>3134</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="22" ht="20.4" spans="1:5">
@@ -28184,13 +28211,13 @@
         <v>330016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>3135</v>
+        <v>3144</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>3136</v>
+        <v>3145</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>3137</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="23" ht="20.4" spans="1:5">
@@ -28199,13 +28226,13 @@
         <v>330017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>3138</v>
+        <v>3147</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>3139</v>
+        <v>3148</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>3140</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="24" ht="20.4" spans="1:5">
@@ -28214,13 +28241,13 @@
         <v>330018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>3141</v>
+        <v>3150</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>3142</v>
+        <v>3151</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>3143</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="25" ht="20.4" spans="1:5">
@@ -28229,13 +28256,13 @@
         <v>330019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>3144</v>
+        <v>3153</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>3145</v>
+        <v>3154</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>3146</v>
+        <v>3155</v>
       </c>
     </row>
   </sheetData>
